--- a/src/main/resources/office/国际模板.xlsx
+++ b/src/main/resources/office/国际模板.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\test1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hh\IdeaProjects\java\src\main\resources\office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312C5636-1484-4686-BFB8-1402E1007660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192F92E7-1A4E-4FD3-AF2F-AB06710DA5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4344" yWindow="2448" windowWidth="17280" windowHeight="10092" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
   </si>
   <si>
     <t>{pic0}</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>{trayNo}</t>
@@ -616,12 +616,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="26"/>
-      <color indexed="8"/>
-      <name val="Abri Barcode39"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
@@ -701,6 +695,13 @@
       <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -878,32 +879,17 @@
   </cellStyleXfs>
   <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -912,6 +898,27 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -919,15 +926,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -948,107 +946,110 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1411,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -1868,923 +1869,923 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="35.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="35" t="s">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:13" ht="36.9" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="M2" s="5"/>
+      <c r="A2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="27" customHeight="1">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="50" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="J3" s="51" t="s">
+      <c r="J3" s="39" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="24.9" customHeight="1">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:13" ht="33.9" customHeight="1">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="47" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="49"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:13" ht="34.799999999999997" customHeight="1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58"/>
     </row>
     <row r="7" spans="1:13" ht="21" customHeight="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
     </row>
     <row r="8" spans="1:13" ht="27" customHeight="1">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53" t="s">
+      <c r="E8" s="42"/>
+      <c r="F8" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="H8" s="53" t="s">
+      <c r="H8" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="I8" s="53" t="s">
+      <c r="I8" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="J8" s="54" t="s">
+      <c r="J8" s="43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="21" customHeight="1">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="27" t="s">
+      <c r="C9" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="27" t="s">
+      <c r="F9" s="48"/>
+      <c r="G9" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="46" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="30" t="s">
+      <c r="C10" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="30" t="s">
+      <c r="F10" s="50"/>
+      <c r="G10" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="45" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="21" customHeight="1">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="27" t="s">
+      <c r="C11" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="27" t="s">
+      <c r="F11" s="48"/>
+      <c r="G11" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="46" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="30" t="s">
+      <c r="C12" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="30" t="s">
+      <c r="F12" s="50"/>
+      <c r="G12" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="J12" s="45" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="21" customHeight="1">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="27" t="s">
+      <c r="C13" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="27" t="s">
+      <c r="F13" s="48"/>
+      <c r="G13" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="46" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="30" t="s">
+      <c r="F14" s="50"/>
+      <c r="G14" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="45" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="21" customHeight="1">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="27" t="s">
+      <c r="C15" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="27" t="s">
+      <c r="F15" s="48"/>
+      <c r="G15" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="46" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="30" t="s">
+      <c r="C16" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="30" t="s">
+      <c r="F16" s="50"/>
+      <c r="G16" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="30" t="s">
+      <c r="J16" s="45" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="21" customHeight="1">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="27" t="s">
+      <c r="C17" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="27" t="s">
+      <c r="F17" s="48"/>
+      <c r="G17" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="27" t="s">
+      <c r="J17" s="46" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="30" t="s">
+      <c r="C18" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="30" t="s">
+      <c r="F18" s="50"/>
+      <c r="G18" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="31" t="s">
+      <c r="I18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="30" t="s">
+      <c r="J18" s="45" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="21" customHeight="1">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="27" t="s">
+      <c r="C19" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="27" t="s">
+      <c r="F19" s="48"/>
+      <c r="G19" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="27" t="s">
+      <c r="J19" s="46" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="30" t="s">
+      <c r="C20" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="30" t="s">
+      <c r="F20" s="50"/>
+      <c r="G20" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="31" t="s">
+      <c r="I20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J20" s="30" t="s">
+      <c r="J20" s="45" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="21" customHeight="1">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="27" t="s">
+      <c r="C21" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="27" t="s">
+      <c r="F21" s="48"/>
+      <c r="G21" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="I21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J21" s="27" t="s">
+      <c r="J21" s="46" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="30" t="s">
+      <c r="C22" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="30" t="s">
+      <c r="F22" s="50"/>
+      <c r="G22" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="I22" s="31" t="s">
+      <c r="I22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J22" s="30" t="s">
+      <c r="J22" s="45" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="21" customHeight="1">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="27" t="s">
+      <c r="C23" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="27" t="s">
+      <c r="F23" s="48"/>
+      <c r="G23" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="I23" s="26" t="s">
+      <c r="I23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J23" s="27" t="s">
+      <c r="J23" s="46" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="30" t="s">
+      <c r="C24" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" s="30" t="s">
+      <c r="F24" s="50"/>
+      <c r="G24" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="I24" s="31" t="s">
+      <c r="I24" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J24" s="30" t="s">
+      <c r="J24" s="45" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21" customHeight="1">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="27" t="s">
+      <c r="C25" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" s="27" t="s">
+      <c r="F25" s="48"/>
+      <c r="G25" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="I25" s="26" t="s">
+      <c r="I25" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J25" s="27" t="s">
+      <c r="J25" s="46" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="30" t="s">
+      <c r="C26" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26" s="30" t="s">
+      <c r="F26" s="50"/>
+      <c r="G26" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="I26" s="31" t="s">
+      <c r="I26" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J26" s="30" t="s">
+      <c r="J26" s="45" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="21" customHeight="1">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="27" t="s">
+      <c r="C27" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" s="27" t="s">
+      <c r="F27" s="48"/>
+      <c r="G27" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="I27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J27" s="27" t="s">
+      <c r="J27" s="46" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="30" t="s">
+      <c r="C28" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="30" t="s">
+      <c r="F28" s="50"/>
+      <c r="G28" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="I28" s="31" t="s">
+      <c r="I28" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J28" s="30" t="s">
+      <c r="J28" s="45" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="27" t="s">
+      <c r="C29" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="27" t="s">
+      <c r="F29" s="48"/>
+      <c r="G29" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="I29" s="26" t="s">
+      <c r="I29" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J29" s="27" t="s">
+      <c r="J29" s="46" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C30" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="30" t="s">
+      <c r="C30" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H30" s="30" t="s">
+      <c r="F30" s="50"/>
+      <c r="G30" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="I30" s="31" t="s">
+      <c r="I30" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J30" s="30" t="s">
+      <c r="J30" s="45" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="27" t="s">
+      <c r="C31" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="27" t="s">
+      <c r="F31" s="48"/>
+      <c r="G31" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="I31" s="26" t="s">
+      <c r="I31" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J31" s="27" t="s">
+      <c r="J31" s="46" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="12.9" customHeight="1">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="34" t="s">
+      <c r="C32" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H32" s="30" t="s">
+      <c r="F32" s="50"/>
+      <c r="G32" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="I32" s="31" t="s">
+      <c r="I32" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="J32" s="30" t="s">
+      <c r="J32" s="45" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="33.9" customHeight="1">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="56" t="s">
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="58"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="54"/>
     </row>
     <row r="34" spans="1:10" ht="33.9" customHeight="1">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="56" t="s">
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="58"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="54"/>
     </row>
     <row r="35" spans="1:10" ht="29.1" customHeight="1">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="58"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="116">
